--- a/SVM/zones.xlsx
+++ b/SVM/zones.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="21735" windowHeight="9435"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="20730" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Zone</t>
   </si>
@@ -63,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,9 +231,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,22 +249,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +310,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -339,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,9 +379,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,28 +555,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="18.75">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,200 +602,202 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -801,24 +810,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
